--- a/storage/powerBI/platform_image.xlsx
+++ b/storage/powerBI/platform_image.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af2e5637b8789c0/simccv_cimatec_v4/Cubo_Iapos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\acerola\workspace\simcc\simcc-back\storage\powerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{A3E611FE-DB69-40B8-8813-926900D02CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9907E67-4116-4970-A733-B051536C2DC4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B0E06E-DA80-41FF-A647-62853D33094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55200" yWindow="2400" windowWidth="21600" windowHeight="11235" xr2:uid="{E413C054-7083-4403-A716-E0194D43DBE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E413C054-7083-4403-A716-E0194D43DBE9}"/>
   </bookViews>
   <sheets>
     <sheet name="logo_platform" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -69,10 +67,10 @@
     <t>npai</t>
   </si>
   <si>
-    <t>https://simcc.uesc.br/api/iapos.png</t>
-  </si>
-  <si>
-    <t>https://simcc.uesc.br/api/npai.png</t>
+    <t>https://simcc.uesc.br/v3/api/iapos.png</t>
+  </si>
+  <si>
+    <t>https://simcc.uesc.br/v3/api/npai.png</t>
   </si>
 </sst>
 </file>
@@ -458,16 +456,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -483,7 +481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -491,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -517,13 +515,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -531,7 +529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
